--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.829666666666667</v>
+        <v>2.108551</v>
       </c>
       <c r="N2">
-        <v>8.489000000000001</v>
+        <v>6.325653</v>
       </c>
       <c r="O2">
-        <v>0.3439176707524496</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="P2">
-        <v>0.3439176707524497</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="Q2">
-        <v>553.0170057403333</v>
+        <v>416.5302710597202</v>
       </c>
       <c r="R2">
-        <v>4977.153051663</v>
+        <v>3748.772439537483</v>
       </c>
       <c r="S2">
-        <v>0.1064680286453117</v>
+        <v>0.09370030363143667</v>
       </c>
       <c r="T2">
-        <v>0.1064680286453118</v>
+        <v>0.09370030363143665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.879972</v>
       </c>
       <c r="O3">
-        <v>0.6028372377313781</v>
+        <v>0.6504353597609333</v>
       </c>
       <c r="P3">
-        <v>0.6028372377313782</v>
+        <v>0.6504353597609331</v>
       </c>
       <c r="Q3">
-        <v>969.3577053763694</v>
+        <v>979.8132731152102</v>
       </c>
       <c r="R3">
-        <v>8724.219348387323</v>
+        <v>8818.319458036891</v>
       </c>
       <c r="S3">
-        <v>0.1866228395732638</v>
+        <v>0.2204132750290407</v>
       </c>
       <c r="T3">
-        <v>0.1866228395732639</v>
+        <v>0.2204132750290406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.159539</v>
+        <v>0.3799926666666666</v>
       </c>
       <c r="N4">
-        <v>0.478617</v>
+        <v>1.139978</v>
       </c>
       <c r="O4">
-        <v>0.01939036916274298</v>
+        <v>0.04983087337459701</v>
       </c>
       <c r="P4">
-        <v>0.01939036916274298</v>
+        <v>0.049830873374597</v>
       </c>
       <c r="Q4">
-        <v>31.179566525671</v>
+        <v>75.06503207528421</v>
       </c>
       <c r="R4">
-        <v>280.616098731039</v>
+        <v>675.5852886775579</v>
       </c>
       <c r="S4">
-        <v>0.006002757505728962</v>
+        <v>0.01688620680476117</v>
       </c>
       <c r="T4">
-        <v>0.006002757505728964</v>
+        <v>0.01688620680476116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1673503333333334</v>
+        <v>0.077919</v>
       </c>
       <c r="N5">
-        <v>0.502051</v>
+        <v>0.233757</v>
       </c>
       <c r="O5">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="P5">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="Q5">
-        <v>32.70617749427966</v>
+        <v>15.392381873003</v>
       </c>
       <c r="R5">
-        <v>294.355597448517</v>
+        <v>138.531436857027</v>
       </c>
       <c r="S5">
-        <v>0.006296663947391611</v>
+        <v>0.003462583527103643</v>
       </c>
       <c r="T5">
-        <v>0.006296663947391614</v>
+        <v>0.003462583527103642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1111976666666667</v>
+        <v>0.099194</v>
       </c>
       <c r="N6">
-        <v>0.333593</v>
+        <v>0.297582</v>
       </c>
       <c r="O6">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="P6">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="Q6">
-        <v>21.73195924089233</v>
+        <v>19.59511707684467</v>
       </c>
       <c r="R6">
-        <v>195.587633168031</v>
+        <v>176.356053691602</v>
       </c>
       <c r="S6">
-        <v>0.004183883741297617</v>
+        <v>0.004408007166256225</v>
       </c>
       <c r="T6">
-        <v>0.004183883741297619</v>
+        <v>0.004408007166256223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.829666666666667</v>
+        <v>2.108551</v>
       </c>
       <c r="N7">
-        <v>8.489000000000001</v>
+        <v>6.325653</v>
       </c>
       <c r="O7">
-        <v>0.3439176707524496</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="P7">
-        <v>0.3439176707524497</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="Q7">
-        <v>225.8845159624445</v>
+        <v>168.3198334375527</v>
       </c>
       <c r="R7">
-        <v>2032.960643662</v>
+        <v>1514.878500937974</v>
       </c>
       <c r="S7">
-        <v>0.04348777499857615</v>
+        <v>0.03786428165272594</v>
       </c>
       <c r="T7">
-        <v>0.04348777499857617</v>
+        <v>0.03786428165272594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.879972</v>
       </c>
       <c r="O8">
-        <v>0.6028372377313781</v>
+        <v>0.6504353597609333</v>
       </c>
       <c r="P8">
-        <v>0.6028372377313782</v>
+        <v>0.6504353597609331</v>
       </c>
       <c r="Q8">
         <v>395.9424281723085</v>
@@ -948,10 +948,10 @@
         <v>3563.481853550776</v>
       </c>
       <c r="S8">
-        <v>0.07622769163872224</v>
+        <v>0.08906897845845731</v>
       </c>
       <c r="T8">
-        <v>0.07622769163872227</v>
+        <v>0.08906897845845727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.159539</v>
+        <v>0.3799926666666666</v>
       </c>
       <c r="N9">
-        <v>0.478617</v>
+        <v>1.139978</v>
       </c>
       <c r="O9">
-        <v>0.01939036916274298</v>
+        <v>0.04983087337459701</v>
       </c>
       <c r="P9">
-        <v>0.01939036916274298</v>
+        <v>0.049830873374597</v>
       </c>
       <c r="Q9">
-        <v>12.73556006318733</v>
+        <v>30.33377061348044</v>
       </c>
       <c r="R9">
-        <v>114.620040568686</v>
+        <v>273.003935521324</v>
       </c>
       <c r="S9">
-        <v>0.002451877536399283</v>
+        <v>0.006823714179375823</v>
       </c>
       <c r="T9">
-        <v>0.002451877536399285</v>
+        <v>0.00682371417937582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1673503333333334</v>
+        <v>0.077919</v>
       </c>
       <c r="N10">
-        <v>0.502051</v>
+        <v>0.233757</v>
       </c>
       <c r="O10">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="P10">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="Q10">
-        <v>13.35911734285089</v>
+        <v>6.220059700534001</v>
       </c>
       <c r="R10">
-        <v>120.232056085658</v>
+        <v>55.98053730480599</v>
       </c>
       <c r="S10">
-        <v>0.002571926130970686</v>
+        <v>0.00139922959515741</v>
       </c>
       <c r="T10">
-        <v>0.002571926130970687</v>
+        <v>0.00139922959515741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1111976666666667</v>
+        <v>0.099194</v>
       </c>
       <c r="N11">
-        <v>0.333593</v>
+        <v>0.297582</v>
       </c>
       <c r="O11">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="P11">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="Q11">
-        <v>8.876604232943778</v>
+        <v>7.918384501017334</v>
       </c>
       <c r="R11">
-        <v>79.889438096494</v>
+        <v>71.265460509156</v>
       </c>
       <c r="S11">
-        <v>0.001708943023336083</v>
+        <v>0.001781275176299031</v>
       </c>
       <c r="T11">
-        <v>0.001708943023336084</v>
+        <v>0.00178127517629903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.829666666666667</v>
+        <v>2.108551</v>
       </c>
       <c r="N12">
-        <v>8.489000000000001</v>
+        <v>6.325653</v>
       </c>
       <c r="O12">
-        <v>0.3439176707524496</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="P12">
-        <v>0.3439176707524497</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="Q12">
-        <v>459.8538206441112</v>
+        <v>313.803873289767</v>
       </c>
       <c r="R12">
-        <v>4138.684385797001</v>
+        <v>2824.234859607903</v>
       </c>
       <c r="S12">
-        <v>0.08853205098720252</v>
+        <v>0.07059155180526194</v>
       </c>
       <c r="T12">
-        <v>0.08853205098720257</v>
+        <v>0.07059155180526194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.879972</v>
       </c>
       <c r="O13">
-        <v>0.6028372377313781</v>
+        <v>0.6504353597609333</v>
       </c>
       <c r="P13">
-        <v>0.6028372377313782</v>
+        <v>0.6504353597609331</v>
       </c>
       <c r="Q13">
-        <v>806.0563052511952</v>
+        <v>738.1677192921081</v>
       </c>
       <c r="R13">
-        <v>7254.506747260757</v>
+        <v>6643.509473628972</v>
       </c>
       <c r="S13">
-        <v>0.1551837012359696</v>
+        <v>0.1660540523324386</v>
       </c>
       <c r="T13">
-        <v>0.1551837012359697</v>
+        <v>0.1660540523324386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.159539</v>
+        <v>0.3799926666666666</v>
       </c>
       <c r="N14">
-        <v>0.478617</v>
+        <v>1.139978</v>
       </c>
       <c r="O14">
-        <v>0.01939036916274298</v>
+        <v>0.04983087337459701</v>
       </c>
       <c r="P14">
-        <v>0.01939036916274298</v>
+        <v>0.049830873374597</v>
       </c>
       <c r="Q14">
-        <v>25.92694735248234</v>
+        <v>56.552187080942</v>
       </c>
       <c r="R14">
-        <v>233.342526172341</v>
+        <v>508.969683728478</v>
       </c>
       <c r="S14">
-        <v>0.004991511915106834</v>
+        <v>0.0127216614701848</v>
       </c>
       <c r="T14">
-        <v>0.004991511915106835</v>
+        <v>0.0127216614701848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1673503333333334</v>
+        <v>0.077919</v>
       </c>
       <c r="N15">
-        <v>0.502051</v>
+        <v>0.233757</v>
       </c>
       <c r="O15">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="P15">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="Q15">
-        <v>27.19638008106923</v>
+        <v>11.596249748223</v>
       </c>
       <c r="R15">
-        <v>244.767420729623</v>
+        <v>104.366247734007</v>
       </c>
       <c r="S15">
-        <v>0.00523590584641018</v>
+        <v>0.002608627026386464</v>
       </c>
       <c r="T15">
-        <v>0.005235905846410181</v>
+        <v>0.002608627026386464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1111976666666667</v>
+        <v>0.099194</v>
       </c>
       <c r="N16">
-        <v>0.333593</v>
+        <v>0.297582</v>
       </c>
       <c r="O16">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="P16">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="Q16">
-        <v>18.07091713866545</v>
+        <v>14.762489219898</v>
       </c>
       <c r="R16">
-        <v>162.638254247989</v>
+        <v>132.862402979082</v>
       </c>
       <c r="S16">
-        <v>0.003479052006711492</v>
+        <v>0.003320886423791103</v>
       </c>
       <c r="T16">
-        <v>0.003479052006711493</v>
+        <v>0.003320886423791102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.829666666666667</v>
+        <v>2.108551</v>
       </c>
       <c r="N17">
-        <v>8.489000000000001</v>
+        <v>6.325653</v>
       </c>
       <c r="O17">
-        <v>0.3439176707524496</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="P17">
-        <v>0.3439176707524497</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="Q17">
-        <v>95.46893143377781</v>
+        <v>74.699326320003</v>
       </c>
       <c r="R17">
-        <v>859.2203829040003</v>
+        <v>672.293936880027</v>
       </c>
       <c r="S17">
-        <v>0.01837988492419237</v>
+        <v>0.01680393969792537</v>
       </c>
       <c r="T17">
-        <v>0.01837988492419237</v>
+        <v>0.01680393969792537</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.879972</v>
       </c>
       <c r="O18">
-        <v>0.6028372377313781</v>
+        <v>0.6504353597609333</v>
       </c>
       <c r="P18">
-        <v>0.6028372377313782</v>
+        <v>0.6504353597609331</v>
       </c>
       <c r="Q18">
-        <v>167.3430352932658</v>
+        <v>175.716860229372</v>
       </c>
       <c r="R18">
-        <v>1506.087317639392</v>
+        <v>1581.451742064348</v>
       </c>
       <c r="S18">
-        <v>0.03221724267112788</v>
+        <v>0.03952827513536042</v>
       </c>
       <c r="T18">
-        <v>0.03221724267112788</v>
+        <v>0.03952827513536041</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.159539</v>
+        <v>0.3799926666666666</v>
       </c>
       <c r="N19">
-        <v>0.478617</v>
+        <v>1.139978</v>
       </c>
       <c r="O19">
-        <v>0.01939036916274298</v>
+        <v>0.04983087337459701</v>
       </c>
       <c r="P19">
-        <v>0.01939036916274298</v>
+        <v>0.049830873374597</v>
       </c>
       <c r="Q19">
-        <v>5.382619101901335</v>
+        <v>13.461944343078</v>
       </c>
       <c r="R19">
-        <v>48.44357191711201</v>
+        <v>121.157499087702</v>
       </c>
       <c r="S19">
-        <v>0.001036273457740862</v>
+        <v>0.003028323173743734</v>
       </c>
       <c r="T19">
-        <v>0.001036273457740862</v>
+        <v>0.003028323173743733</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1673503333333334</v>
+        <v>0.077919</v>
       </c>
       <c r="N20">
-        <v>0.502051</v>
+        <v>0.233757</v>
       </c>
       <c r="O20">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="P20">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="Q20">
-        <v>5.646162386059558</v>
+        <v>2.760424958907</v>
       </c>
       <c r="R20">
-        <v>50.81546147453601</v>
+        <v>24.843824630163</v>
       </c>
       <c r="S20">
-        <v>0.001087011380147921</v>
+        <v>0.0006209696504009849</v>
       </c>
       <c r="T20">
-        <v>0.001087011380147921</v>
+        <v>0.0006209696504009848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1111976666666667</v>
+        <v>0.099194</v>
       </c>
       <c r="N21">
-        <v>0.333593</v>
+        <v>0.297582</v>
       </c>
       <c r="O21">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="P21">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="Q21">
-        <v>3.751651224383113</v>
+        <v>3.514131256482</v>
       </c>
       <c r="R21">
-        <v>33.76486101944801</v>
+        <v>31.627181308338</v>
       </c>
       <c r="S21">
-        <v>0.0007222759985294033</v>
+        <v>0.0007905191737814307</v>
       </c>
       <c r="T21">
-        <v>0.0007222759985294036</v>
+        <v>0.0007905191737814305</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.829666666666667</v>
+        <v>2.108551</v>
       </c>
       <c r="N22">
-        <v>8.489000000000001</v>
+        <v>6.325653</v>
       </c>
       <c r="O22">
-        <v>0.3439176707524496</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="P22">
-        <v>0.3439176707524497</v>
+        <v>0.2765078042336253</v>
       </c>
       <c r="Q22">
-        <v>452.1553832928889</v>
+        <v>255.8195606959153</v>
       </c>
       <c r="R22">
-        <v>4069.398449636</v>
+        <v>2302.376046263238</v>
       </c>
       <c r="S22">
-        <v>0.08704993119716677</v>
+        <v>0.05754772744627543</v>
       </c>
       <c r="T22">
-        <v>0.08704993119716682</v>
+        <v>0.05754772744627542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.879972</v>
       </c>
       <c r="O23">
-        <v>0.6028372377313781</v>
+        <v>0.6504353597609333</v>
       </c>
       <c r="P23">
-        <v>0.6028372377313782</v>
+        <v>0.6504353597609331</v>
       </c>
       <c r="Q23">
-        <v>792.562073630281</v>
+        <v>601.7699516883903</v>
       </c>
       <c r="R23">
-        <v>7133.058662672528</v>
+        <v>5415.929565195512</v>
       </c>
       <c r="S23">
-        <v>0.1525857626122945</v>
+        <v>0.1353707788056363</v>
       </c>
       <c r="T23">
-        <v>0.1525857626122946</v>
+        <v>0.1353707788056363</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.159539</v>
+        <v>0.3799926666666666</v>
       </c>
       <c r="N24">
-        <v>0.478617</v>
+        <v>1.139978</v>
       </c>
       <c r="O24">
-        <v>0.01939036916274298</v>
+        <v>0.04983087337459701</v>
       </c>
       <c r="P24">
-        <v>0.01939036916274298</v>
+        <v>0.049830873374597</v>
       </c>
       <c r="Q24">
-        <v>25.49290294327867</v>
+        <v>46.10254011135422</v>
       </c>
       <c r="R24">
-        <v>229.436126489508</v>
+        <v>414.922861002188</v>
       </c>
       <c r="S24">
-        <v>0.004907948747767036</v>
+        <v>0.01037096774653149</v>
       </c>
       <c r="T24">
-        <v>0.004907948747767038</v>
+        <v>0.01037096774653149</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1673503333333334</v>
+        <v>0.077919</v>
       </c>
       <c r="N25">
-        <v>0.502051</v>
+        <v>0.233757</v>
       </c>
       <c r="O25">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="P25">
-        <v>0.0203397585721449</v>
+        <v>0.01021801777527783</v>
       </c>
       <c r="Q25">
-        <v>26.74108403081378</v>
+        <v>9.453508285958</v>
       </c>
       <c r="R25">
-        <v>240.669756277324</v>
+        <v>85.08157457362199</v>
       </c>
       <c r="S25">
-        <v>0.005148251267224499</v>
+        <v>0.002126607976229333</v>
       </c>
       <c r="T25">
-        <v>0.005148251267224502</v>
+        <v>0.002126607976229332</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.1111976666666667</v>
+        <v>0.099194</v>
       </c>
       <c r="N26">
-        <v>0.333593</v>
+        <v>0.297582</v>
       </c>
       <c r="O26">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="P26">
-        <v>0.01351496378128424</v>
+        <v>0.0130079448555668</v>
       </c>
       <c r="Q26">
-        <v>17.76839095050356</v>
+        <v>12.03469373217467</v>
       </c>
       <c r="R26">
-        <v>159.915518554532</v>
+        <v>108.312243589572</v>
       </c>
       <c r="S26">
-        <v>0.003420809011409643</v>
+        <v>0.002707256915439012</v>
       </c>
       <c r="T26">
-        <v>0.003420809011409644</v>
+        <v>0.002707256915439012</v>
       </c>
     </row>
   </sheetData>
